--- a/WidthDepth/DepthWidth_Station01_2022-07-12_1103.xlsx
+++ b/WidthDepth/DepthWidth_Station01_2022-07-12_1103.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\Documents\Ecuador2022\Metabolism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/WidthDepth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418C91A-CFB8-4ADF-A367-ED57496A8D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D418C91A-CFB8-4ADF-A367-ED57496A8D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F31BD76-E707-4A8B-964C-F34A2D9DE8E1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FDDE1A7-1323-7B4D-BA35-8F5857ECA2F2}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="12390" windowHeight="9730" xr2:uid="{5FDDE1A7-1323-7B4D-BA35-8F5857ECA2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">Time </t>
   </si>
@@ -51,6 +52,15 @@
   </si>
   <si>
     <t>total width (cm)</t>
+  </si>
+  <si>
+    <t>width (cm)</t>
+  </si>
+  <si>
+    <t>Average depth</t>
+  </si>
+  <si>
+    <t>Thalwag depth</t>
   </si>
 </sst>
 </file>
@@ -404,19 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65432D5A-93F6-E547-8A3C-232D3FAAA878}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +434,7 @@
         <v>0.4604166666666667</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -432,7 +442,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -445,8 +455,20 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -459,8 +481,24 @@
       <c r="D5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <f>A5</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>B5</f>
+        <v>110</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>12.4</v>
+      </c>
+      <c r="I5">
+        <f>D7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -474,7 +512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -488,7 +526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -502,7 +540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -516,7 +554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -529,8 +567,24 @@
       <c r="D10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f>A10</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>B10</f>
+        <v>65</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(D10:D14)</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I10">
+        <f>D12</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -544,7 +598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -558,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -572,7 +626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -586,7 +640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -599,8 +653,24 @@
       <c r="D15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <f>A15</f>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f>B15</f>
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(D15:D19)</f>
+        <v>24.2</v>
+      </c>
+      <c r="I15">
+        <f>D17</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -614,7 +684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -628,7 +698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -642,7 +712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -656,7 +726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -669,8 +739,24 @@
       <c r="D20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <f>A20</f>
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>B20</f>
+        <v>55</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE(D20:D24)</f>
+        <v>18.8</v>
+      </c>
+      <c r="I20">
+        <f>D22</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
@@ -684,7 +770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -698,7 +784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -712,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -726,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -739,8 +825,24 @@
       <c r="D25">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <f>A25</f>
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <f>B25</f>
+        <v>55</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGE(D25:D29)</f>
+        <v>18.2</v>
+      </c>
+      <c r="I25">
+        <f>D27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -754,7 +856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -768,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -782,7 +884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -796,7 +898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>5</v>
       </c>
@@ -809,8 +911,24 @@
       <c r="D30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <f>A30</f>
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <f>B30</f>
+        <v>110</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGE(D30:D34)</f>
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <f>D32</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>5</v>
       </c>
@@ -824,7 +942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>5</v>
       </c>
@@ -838,7 +956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>5</v>
       </c>
@@ -852,7 +970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -866,7 +984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -879,8 +997,24 @@
       <c r="D35">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <f>A35</f>
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <f>B35</f>
+        <v>70</v>
+      </c>
+      <c r="H35">
+        <f>AVERAGE(D35:D39)</f>
+        <v>12.2</v>
+      </c>
+      <c r="I35">
+        <f>D37</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6</v>
       </c>
@@ -894,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>6</v>
       </c>
@@ -908,7 +1042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6</v>
       </c>
@@ -922,7 +1056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>6</v>
       </c>
@@ -936,7 +1070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>7</v>
       </c>
@@ -949,8 +1083,24 @@
       <c r="D40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <f>A40</f>
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <f>B40</f>
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <f>AVERAGE(D40:D44)</f>
+        <v>5.6</v>
+      </c>
+      <c r="I40">
+        <f>D42</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>7</v>
       </c>
@@ -964,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>7</v>
       </c>
@@ -978,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>7</v>
       </c>
@@ -992,7 +1142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7</v>
       </c>
